--- a/144F20/Topic 7/Topic7DQ1Example.xlsx
+++ b/144F20/Topic 7/Topic7DQ1Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{897CA9CD-54CD-4E93-B9D5-F7EAE06E8721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{0DCC0CC6-BFFA-4860-9993-41C8BA5C51A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="1116" windowWidth="20796" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -451,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,9 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -603,6 +607,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -623,7 +657,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F63F7EE6-80A9-47BB-B4BD-5FF6D20749D1}" diskRevisions="1" revisionId="84" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{187801E0-AE67-4FE0-96FE-E8C4835D21BE}" diskRevisions="1" revisionId="84" version="5">
   <header guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" dateTime="2020-10-28T16:27:16" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -644,6 +678,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{187801E0-AE67-4FE0-96FE-E8C4835D21BE}" dateTime="2020-10-28T17:30:21" maxSheetId="2" userName="Richard Ketchersid" r:id="rId5">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1122,10 +1161,30 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="I1:R8" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I10:N12" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{4C707B72-4DE4-40FF-B564-69B8E4341870}" name="Richard Ketchersid" id="-1739585284" dateTime="2020-10-28T17:00:39"/>
   <userInfo guid="{F63F7EE6-80A9-47BB-B4BD-5FF6D20749D1}" name="Richard Ketchersid" id="-1739553585" dateTime="2020-10-28T17:09:06"/>
+  <userInfo guid="{187801E0-AE67-4FE0-96FE-E8C4835D21BE}" name="Richard Ketchersid" id="-1739540139" dateTime="2020-10-28T17:30:10"/>
 </users>
 </file>
 
@@ -1450,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B7" sqref="B7:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,22 +1555,22 @@
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="46" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="47"/>
+      <c r="T1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -1536,16 +1595,16 @@
         <f>D2*E2+F2</f>
         <v>117671.00000000001</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
       <c r="S2" s="25" t="s">
         <v>13</v>
       </c>
@@ -1576,16 +1635,16 @@
         <f t="shared" ref="G3:G4" si="0">D3*E3+F3</f>
         <v>12448</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="41"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="27" t="s">
         <v>15</v>
       </c>
@@ -1616,16 +1675,16 @@
         <f t="shared" si="0"/>
         <v>20982</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
       <c r="S4" s="29" t="s">
         <v>17</v>
       </c>
@@ -1649,16 +1708,16 @@
         <f>SUM(G2:G4)</f>
         <v>151101</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="52"/>
       <c r="S5" s="30" t="s">
         <v>19</v>
       </c>
@@ -1668,16 +1727,16 @@
     </row>
     <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="31" t="s">
         <v>21</v>
       </c>
@@ -1695,16 +1754,16 @@
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="52"/>
     </row>
     <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
@@ -1714,16 +1773,16 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="44"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
@@ -1742,14 +1801,14 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="41"/>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
@@ -1759,21 +1818,21 @@
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="44"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
@@ -2216,7 +2275,6 @@
         <v>342220</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3"/>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{D7828552-57AD-4E53-831F-A30DC6E63B53}">
@@ -2238,24 +2296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002FC4D7A32A34E94B953742578E0D227D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6062e902822a1ea35e0b6c93f60576e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="d8c16f6f-632d-4fa9-9000-4a0cb55aa11b" xmlns:ns4="6588c10b-b5ed-4e95-9d69-08b9b2ce7055" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a7d56c96ea3c0bda530556fd5715147" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2495,25 +2535,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{304409DA-D7D2-4B77-8585-91038CD31578}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A58233-4D31-4A49-A012-376447DE6072}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C531B44-C316-4FDA-9217-B890CF7C4C55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2531,4 +2571,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A58233-4D31-4A49-A012-376447DE6072}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{304409DA-D7D2-4B77-8585-91038CD31578}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>